--- a/prueba_combustibles_miem.xlsx
+++ b/prueba_combustibles_miem.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Súpergas</t>
+          <t>Propano industrial (sin impuestos)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$ por kilo</t>
+          <t>USD/ton</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>uyu</t>
+          <t>usd</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
         <v>36526</v>
       </c>
       <c r="C313" t="n">
-        <v>8.034679799999999</v>
+        <v>500</v>
       </c>
     </row>
     <row r="314">
@@ -4047,7 +4047,7 @@
         <v>36557</v>
       </c>
       <c r="C314" t="n">
-        <v>8.62496227986207</v>
+        <v>534.4827586206897</v>
       </c>
     </row>
     <row r="315">
@@ -4058,7 +4058,7 @@
         <v>36586</v>
       </c>
       <c r="C315" t="n">
-        <v>8.950845915000002</v>
+        <v>550</v>
       </c>
     </row>
     <row r="316">
@@ -4069,7 +4069,7 @@
         <v>36617</v>
       </c>
       <c r="C316" t="n">
-        <v>8.984144844000001</v>
+        <v>550</v>
       </c>
     </row>
     <row r="317">
@@ -4080,7 +4080,7 @@
         <v>36647</v>
       </c>
       <c r="C317" t="n">
-        <v>9.312215828225805</v>
+        <v>565.8064516129032</v>
       </c>
     </row>
     <row r="318">
@@ -4091,7 +4091,7 @@
         <v>36678</v>
       </c>
       <c r="C318" t="n">
-        <v>9.719603294999999</v>
+        <v>585</v>
       </c>
     </row>
     <row r="319">
@@ -4102,7 +4102,7 @@
         <v>36708</v>
       </c>
       <c r="C319" t="n">
-        <v>9.81700638</v>
+        <v>585</v>
       </c>
     </row>
     <row r="320">
@@ -4113,7 +4113,7 @@
         <v>36739</v>
       </c>
       <c r="C320" t="n">
-        <v>9.803656959870967</v>
+        <v>609.6774193548388</v>
       </c>
     </row>
     <row r="321">
@@ -4124,7 +4124,7 @@
         <v>36770</v>
       </c>
       <c r="C321" t="n">
-        <v>9.6719612868</v>
+        <v>636</v>
       </c>
     </row>
     <row r="322">
@@ -4135,7 +4135,7 @@
         <v>36800</v>
       </c>
       <c r="C322" t="n">
-        <v>9.693786898799999</v>
+        <v>636</v>
       </c>
     </row>
     <row r="323">
@@ -4146,7 +4146,7 @@
         <v>36831</v>
       </c>
       <c r="C323" t="n">
-        <v>9.710676324</v>
+        <v>636</v>
       </c>
     </row>
     <row r="324">
@@ -4157,7 +4157,7 @@
         <v>36861</v>
       </c>
       <c r="C324" t="n">
-        <v>9.7428045636</v>
+        <v>636</v>
       </c>
     </row>
     <row r="325">
@@ -4168,7 +4168,7 @@
         <v>36892</v>
       </c>
       <c r="C325" t="n">
-        <v>9.835606439999999</v>
+        <v>636</v>
       </c>
     </row>
     <row r="326">
@@ -4179,7 +4179,7 @@
         <v>36923</v>
       </c>
       <c r="C326" t="n">
-        <v>9.85516344</v>
+        <v>636</v>
       </c>
     </row>
     <row r="327">
@@ -4190,7 +4190,7 @@
         <v>36951</v>
       </c>
       <c r="C327" t="n">
-        <v>10.01005488</v>
+        <v>636</v>
       </c>
     </row>
     <row r="328">
@@ -4201,7 +4201,7 @@
         <v>36982</v>
       </c>
       <c r="C328" t="n">
-        <v>10.09454112</v>
+        <v>636</v>
       </c>
     </row>
     <row r="329">
@@ -4212,7 +4212,7 @@
         <v>37012</v>
       </c>
       <c r="C329" t="n">
-        <v>10.22674644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="330">
@@ -4223,7 +4223,7 @@
         <v>37043</v>
       </c>
       <c r="C330" t="n">
-        <v>10.45830132</v>
+        <v>636</v>
       </c>
     </row>
     <row r="331">
@@ -4234,7 +4234,7 @@
         <v>37073</v>
       </c>
       <c r="C331" t="n">
-        <v>10.63822572</v>
+        <v>636</v>
       </c>
     </row>
     <row r="332">
@@ -4245,7 +4245,7 @@
         <v>37104</v>
       </c>
       <c r="C332" t="n">
-        <v>10.48020516</v>
+        <v>636</v>
       </c>
     </row>
     <row r="333">
@@ -4256,7 +4256,7 @@
         <v>37135</v>
       </c>
       <c r="C333" t="n">
-        <v>10.62883836</v>
+        <v>636</v>
       </c>
     </row>
     <row r="334">
@@ -4267,7 +4267,7 @@
         <v>37165</v>
       </c>
       <c r="C334" t="n">
-        <v>10.91984652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="335">
@@ -4278,7 +4278,7 @@
         <v>37196</v>
       </c>
       <c r="C335" t="n">
-        <v>10.0391616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="336">
@@ -4289,7 +4289,7 @@
         <v>37226</v>
       </c>
       <c r="C336" t="n">
-        <v>10.1211903</v>
+        <v>585</v>
       </c>
     </row>
     <row r="337">
@@ -4300,7 +4300,7 @@
         <v>37257</v>
       </c>
       <c r="C337" t="n">
-        <v>10.31474925</v>
+        <v>585</v>
       </c>
     </row>
     <row r="338">
@@ -4311,7 +4311,7 @@
         <v>37288</v>
       </c>
       <c r="C338" t="n">
-        <v>10.53637065</v>
+        <v>585</v>
       </c>
     </row>
     <row r="339">
@@ -4322,7 +4322,7 @@
         <v>37316</v>
       </c>
       <c r="C339" t="n">
-        <v>10.951551</v>
+        <v>585</v>
       </c>
     </row>
     <row r="340">
@@ -4333,7 +4333,7 @@
         <v>37347</v>
       </c>
       <c r="C340" t="n">
-        <v>11.7775944</v>
+        <v>585</v>
       </c>
     </row>
     <row r="341">
@@ -4344,7 +4344,7 @@
         <v>37377</v>
       </c>
       <c r="C341" t="n">
-        <v>12.2654493</v>
+        <v>585</v>
       </c>
     </row>
     <row r="342">
@@ -4355,7 +4355,7 @@
         <v>37408</v>
       </c>
       <c r="C342" t="n">
-        <v>12.8166246</v>
+        <v>585</v>
       </c>
     </row>
     <row r="343">
@@ -4366,7 +4366,7 @@
         <v>37438</v>
       </c>
       <c r="C343" t="n">
-        <v>16.2862947</v>
+        <v>585</v>
       </c>
     </row>
     <row r="344">
@@ -4377,7 +4377,7 @@
         <v>37469</v>
       </c>
       <c r="C344" t="n">
-        <v>19.2062286</v>
+        <v>585</v>
       </c>
     </row>
     <row r="345">
@@ -4388,7 +4388,7 @@
         <v>37500</v>
       </c>
       <c r="C345" t="n">
-        <v>19.3535744</v>
+        <v>15734.61333333333</v>
       </c>
     </row>
     <row r="346">
@@ -4399,7 +4399,7 @@
         <v>37530</v>
       </c>
       <c r="C346" t="n">
-        <v>18.573</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="347">
@@ -4410,7 +4410,7 @@
         <v>37561</v>
       </c>
       <c r="C347" t="n">
-        <v>18.573</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="348">
@@ -4421,7 +4421,7 @@
         <v>37591</v>
       </c>
       <c r="C348" t="n">
-        <v>18.573</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="349">
@@ -4432,7 +4432,7 @@
         <v>37622</v>
       </c>
       <c r="C349" t="n">
-        <v>20.76760409032258</v>
+        <v>16884.23096774194</v>
       </c>
     </row>
     <row r="350">
@@ -4443,7 +4443,7 @@
         <v>37653</v>
       </c>
       <c r="C350" t="n">
-        <v>21.060616575</v>
+        <v>17122.4525</v>
       </c>
     </row>
     <row r="351">
@@ -4454,7 +4454,7 @@
         <v>37681</v>
       </c>
       <c r="C351" t="n">
-        <v>21.2799963</v>
+        <v>17300.81</v>
       </c>
     </row>
     <row r="352">
@@ -4465,7 +4465,7 @@
         <v>37712</v>
       </c>
       <c r="C352" t="n">
-        <v>21.2799963</v>
+        <v>17300.81</v>
       </c>
     </row>
     <row r="353">
@@ -4476,7 +4476,7 @@
         <v>37742</v>
       </c>
       <c r="C353" t="n">
-        <v>21.2799963</v>
+        <v>17300.81</v>
       </c>
     </row>
     <row r="354">
@@ -4487,7 +4487,7 @@
         <v>37773</v>
       </c>
       <c r="C354" t="n">
-        <v>21.2799963</v>
+        <v>17300.81</v>
       </c>
     </row>
     <row r="355">
@@ -4498,7 +4498,7 @@
         <v>37803</v>
       </c>
       <c r="C355" t="n">
-        <v>21.2799963</v>
+        <v>17300.81</v>
       </c>
     </row>
     <row r="356">
@@ -4509,7 +4509,7 @@
         <v>37834</v>
       </c>
       <c r="C356" t="n">
-        <v>21.59658719032258</v>
+        <v>17558.20096774194</v>
       </c>
     </row>
     <row r="357">
@@ -4520,7 +4520,7 @@
         <v>37865</v>
       </c>
       <c r="C357" t="n">
-        <v>23.7335757</v>
+        <v>19295.59</v>
       </c>
     </row>
     <row r="358">
@@ -4531,7 +4531,7 @@
         <v>37895</v>
       </c>
       <c r="C358" t="n">
-        <v>23.7335757</v>
+        <v>19295.59</v>
       </c>
     </row>
     <row r="359">
@@ -4542,7 +4542,7 @@
         <v>37926</v>
       </c>
       <c r="C359" t="n">
-        <v>23.7335757</v>
+        <v>19295.59</v>
       </c>
     </row>
     <row r="360">
@@ -4553,7 +4553,7 @@
         <v>37956</v>
       </c>
       <c r="C360" t="n">
-        <v>23.7335757</v>
+        <v>19295.59</v>
       </c>
     </row>
     <row r="361">
@@ -4564,7 +4564,7 @@
         <v>37987</v>
       </c>
       <c r="C361" t="n">
-        <v>25.38977907741935</v>
+        <v>20642.09681091004</v>
       </c>
     </row>
     <row r="362">
@@ -4575,7 +4575,7 @@
         <v>38018</v>
       </c>
       <c r="C362" t="n">
-        <v>25.504</v>
+        <v>20734.9593495935</v>
       </c>
     </row>
     <row r="363">
@@ -4586,7 +4586,7 @@
         <v>38047</v>
       </c>
       <c r="C363" t="n">
-        <v>26.89109677419355</v>
+        <v>21862.6803042224</v>
       </c>
     </row>
     <row r="364">
@@ -4597,7 +4597,7 @@
         <v>38078</v>
       </c>
       <c r="C364" t="n">
-        <v>27.654</v>
+        <v>22482.92682926829</v>
       </c>
     </row>
     <row r="365">
@@ -4608,7 +4608,7 @@
         <v>38108</v>
       </c>
       <c r="C365" t="n">
-        <v>27.654</v>
+        <v>22482.92682926829</v>
       </c>
     </row>
     <row r="366">
@@ -4619,7 +4619,7 @@
         <v>38139</v>
       </c>
       <c r="C366" t="n">
-        <v>27.654</v>
+        <v>22482.92682926829</v>
       </c>
     </row>
     <row r="367">
@@ -4630,7 +4630,7 @@
         <v>38169</v>
       </c>
       <c r="C367" t="n">
-        <v>26.58793548387096</v>
+        <v>21616.2077104642</v>
       </c>
     </row>
     <row r="368">
@@ -4641,7 +4641,7 @@
         <v>38200</v>
       </c>
       <c r="C368" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="369">
@@ -4652,7 +4652,7 @@
         <v>38231</v>
       </c>
       <c r="C369" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="370">
@@ -4663,7 +4663,7 @@
         <v>38261</v>
       </c>
       <c r="C370" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="371">
@@ -4674,7 +4674,7 @@
         <v>38292</v>
       </c>
       <c r="C371" t="n">
-        <v>24.9</v>
+        <v>20243.9024390244</v>
       </c>
     </row>
     <row r="372">
@@ -4685,7 +4685,7 @@
         <v>38322</v>
       </c>
       <c r="C372" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="373">
@@ -4696,7 +4696,7 @@
         <v>38353</v>
       </c>
       <c r="C373" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="374">
@@ -4707,7 +4707,7 @@
         <v>38384</v>
       </c>
       <c r="C374" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="375">
@@ -4718,7 +4718,7 @@
         <v>38412</v>
       </c>
       <c r="C375" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="376">
@@ -4729,7 +4729,7 @@
         <v>38443</v>
       </c>
       <c r="C376" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="377">
@@ -4740,7 +4740,7 @@
         <v>38473</v>
       </c>
       <c r="C377" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="378">
@@ -4751,7 +4751,7 @@
         <v>38504</v>
       </c>
       <c r="C378" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="379">
@@ -4762,7 +4762,7 @@
         <v>38534</v>
       </c>
       <c r="C379" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="380">
@@ -4773,7 +4773,7 @@
         <v>38565</v>
       </c>
       <c r="C380" t="n">
-        <v>24.9</v>
+        <v>20243.90243902439</v>
       </c>
     </row>
     <row r="381">
@@ -4784,7 +4784,7 @@
         <v>38596</v>
       </c>
       <c r="C381" t="n">
-        <v>25.7</v>
+        <v>20894.30894308943</v>
       </c>
     </row>
     <row r="382">
@@ -4795,7 +4795,7 @@
         <v>38626</v>
       </c>
       <c r="C382" t="n">
-        <v>26.4</v>
+        <v>21463.41463414634</v>
       </c>
     </row>
     <row r="383">
@@ -4806,7 +4806,7 @@
         <v>38657</v>
       </c>
       <c r="C383" t="n">
-        <v>26.03870967741936</v>
+        <v>21169.68266456858</v>
       </c>
     </row>
     <row r="384">
@@ -4817,7 +4817,7 @@
         <v>38687</v>
       </c>
       <c r="C384" t="n">
-        <v>25.6</v>
+        <v>20813.0081300813</v>
       </c>
     </row>
     <row r="385">
@@ -4828,7 +4828,7 @@
         <v>38718</v>
       </c>
       <c r="C385" t="n">
-        <v>25.6</v>
+        <v>20813.0081300813</v>
       </c>
     </row>
     <row r="386">
@@ -4839,7 +4839,7 @@
         <v>38749</v>
       </c>
       <c r="C386" t="n">
-        <v>25.6</v>
+        <v>20813.0081300813</v>
       </c>
     </row>
     <row r="387">
@@ -4850,7 +4850,7 @@
         <v>38777</v>
       </c>
       <c r="C387" t="n">
-        <v>25.6</v>
+        <v>20813.0081300813</v>
       </c>
     </row>
     <row r="388">
@@ -4861,7 +4861,7 @@
         <v>38808</v>
       </c>
       <c r="C388" t="n">
-        <v>25.98333333333333</v>
+        <v>20813.0081300813</v>
       </c>
     </row>
     <row r="389">
@@ -4872,7 +4872,7 @@
         <v>38838</v>
       </c>
       <c r="C389" t="n">
-        <v>27.9</v>
+        <v>20813.0081300813</v>
       </c>
     </row>
     <row r="390">
@@ -4883,7 +4883,7 @@
         <v>38869</v>
       </c>
       <c r="C390" t="n">
-        <v>27.9</v>
+        <v>20813.0081300813</v>
       </c>
     </row>
     <row r="391">
@@ -4894,7 +4894,7 @@
         <v>38899</v>
       </c>
       <c r="C391" t="n">
-        <v>27.9</v>
+        <v>20813.0081300813</v>
       </c>
     </row>
     <row r="392">
@@ -4905,7 +4905,7 @@
         <v>38930</v>
       </c>
       <c r="C392" t="n">
-        <v>27.9</v>
+        <v>20813.0081300813</v>
       </c>
     </row>
     <row r="393">
@@ -4916,7 +4916,7 @@
         <v>38961</v>
       </c>
       <c r="C393" t="n">
-        <v>27.51</v>
+        <v>20682.92682926829</v>
       </c>
     </row>
     <row r="394">
@@ -4927,7 +4927,7 @@
         <v>38991</v>
       </c>
       <c r="C394" t="n">
-        <v>24</v>
+        <v>19512.19512195122</v>
       </c>
     </row>
     <row r="395">
@@ -4938,7 +4938,7 @@
         <v>39022</v>
       </c>
       <c r="C395" t="n">
-        <v>23</v>
+        <v>18699.18699186992</v>
       </c>
     </row>
     <row r="396">
@@ -4949,7 +4949,7 @@
         <v>39052</v>
       </c>
       <c r="C396" t="n">
-        <v>23</v>
+        <v>18699.18699186992</v>
       </c>
     </row>
     <row r="397">
@@ -4960,7 +4960,7 @@
         <v>39083</v>
       </c>
       <c r="C397" t="n">
-        <v>23</v>
+        <v>18699.18699186992</v>
       </c>
     </row>
     <row r="398">
@@ -4971,7 +4971,7 @@
         <v>39114</v>
       </c>
       <c r="C398" t="n">
-        <v>22.38</v>
+        <v>18195.12195121951</v>
       </c>
     </row>
     <row r="399">
@@ -4982,7 +4982,7 @@
         <v>39142</v>
       </c>
       <c r="C399" t="n">
-        <v>23.6341935483871</v>
+        <v>19214.79150275374</v>
       </c>
     </row>
     <row r="400">
@@ -4993,7 +4993,7 @@
         <v>39173</v>
       </c>
       <c r="C400" t="n">
-        <v>24</v>
+        <v>19512.19512195122</v>
       </c>
     </row>
     <row r="401">
@@ -5004,7 +5004,7 @@
         <v>39203</v>
       </c>
       <c r="C401" t="n">
-        <v>24.62322580645161</v>
+        <v>20018.88276947286</v>
       </c>
     </row>
     <row r="402">
@@ -5015,7 +5015,7 @@
         <v>39234</v>
       </c>
       <c r="C402" t="n">
-        <v>24.69</v>
+        <v>20073.17073170732</v>
       </c>
     </row>
     <row r="403">
@@ -5026,7 +5026,7 @@
         <v>39264</v>
       </c>
       <c r="C403" t="n">
-        <v>24.33516129032258</v>
+        <v>19946.85351665785</v>
       </c>
     </row>
     <row r="404">
@@ -5037,7 +5037,7 @@
         <v>39295</v>
       </c>
       <c r="C404" t="n">
-        <v>26.13064516129032</v>
+        <v>21418.56160761502</v>
       </c>
     </row>
     <row r="405">
@@ -5048,7 +5048,7 @@
         <v>39326</v>
       </c>
       <c r="C405" t="n">
-        <v>25.21033333333333</v>
+        <v>20664.20765027322</v>
       </c>
     </row>
     <row r="406">
@@ -5059,7 +5059,7 @@
         <v>39356</v>
       </c>
       <c r="C406" t="n">
-        <v>24.62</v>
+        <v>20180.32786885246</v>
       </c>
     </row>
     <row r="407">
@@ -5070,7 +5070,7 @@
         <v>39387</v>
       </c>
       <c r="C407" t="n">
-        <v>24.62</v>
+        <v>20180.32786885246</v>
       </c>
     </row>
     <row r="408">
@@ -5081,7 +5081,7 @@
         <v>39417</v>
       </c>
       <c r="C408" t="n">
-        <v>24.62</v>
+        <v>20180.32786885246</v>
       </c>
     </row>
     <row r="409">
@@ -5092,7 +5092,7 @@
         <v>39448</v>
       </c>
       <c r="C409" t="n">
-        <v>24.62</v>
+        <v>20180.32786885246</v>
       </c>
     </row>
     <row r="410">
@@ -5103,7 +5103,7 @@
         <v>39479</v>
       </c>
       <c r="C410" t="n">
-        <v>24.62</v>
+        <v>20180.32786885246</v>
       </c>
     </row>
     <row r="411">
@@ -5114,7 +5114,7 @@
         <v>39508</v>
       </c>
       <c r="C411" t="n">
-        <v>24.69870967741936</v>
+        <v>20244.84399788472</v>
       </c>
     </row>
     <row r="412">
@@ -5125,7 +5125,7 @@
         <v>39539</v>
       </c>
       <c r="C412" t="n">
-        <v>25.23</v>
+        <v>20680.32786885246</v>
       </c>
     </row>
     <row r="413">
@@ -5136,7 +5136,7 @@
         <v>39569</v>
       </c>
       <c r="C413" t="n">
-        <v>26.26161290322581</v>
+        <v>21525.91221575886</v>
       </c>
     </row>
     <row r="414">
@@ -5147,7 +5147,7 @@
         <v>39600</v>
       </c>
       <c r="C414" t="n">
-        <v>27.482</v>
+        <v>22526.22950819672</v>
       </c>
     </row>
     <row r="415">
@@ -5158,7 +5158,7 @@
         <v>39630</v>
       </c>
       <c r="C415" t="n">
-        <v>27.92</v>
+        <v>22885.24590163934</v>
       </c>
     </row>
     <row r="416">
@@ -5169,7 +5169,7 @@
         <v>39661</v>
       </c>
       <c r="C416" t="n">
-        <v>27.92</v>
+        <v>22885.24590163934</v>
       </c>
     </row>
     <row r="417">
@@ -5180,7 +5180,7 @@
         <v>39692</v>
       </c>
       <c r="C417" t="n">
-        <v>27.92</v>
+        <v>22885.24590163934</v>
       </c>
     </row>
     <row r="418">
@@ -5191,7 +5191,7 @@
         <v>39722</v>
       </c>
       <c r="C418" t="n">
-        <v>26.70322580645161</v>
+        <v>21887.89000528821</v>
       </c>
     </row>
     <row r="419">
@@ -5202,7 +5202,7 @@
         <v>39753</v>
       </c>
       <c r="C419" t="n">
-        <v>24.93666666666667</v>
+        <v>20439.89071038251</v>
       </c>
     </row>
     <row r="420">
@@ -5213,7 +5213,7 @@
         <v>39783</v>
       </c>
       <c r="C420" t="n">
-        <v>23.63709677419355</v>
+        <v>19374.66948704389</v>
       </c>
     </row>
     <row r="421">
@@ -5224,7 +5224,7 @@
         <v>39814</v>
       </c>
       <c r="C421" t="n">
-        <v>22.34322580645161</v>
+        <v>18314.11951348493</v>
       </c>
     </row>
     <row r="422">
@@ -5235,7 +5235,7 @@
         <v>39845</v>
       </c>
       <c r="C422" t="n">
-        <v>20.82142857142857</v>
+        <v>17066.74473067915</v>
       </c>
     </row>
     <row r="423">
@@ -5246,7 +5246,7 @@
         <v>39873</v>
       </c>
       <c r="C423" t="n">
-        <v>20.68</v>
+        <v>16950.81967213115</v>
       </c>
     </row>
     <row r="424">
@@ -5257,7 +5257,7 @@
         <v>39904</v>
       </c>
       <c r="C424" t="n">
-        <v>20.68</v>
+        <v>16950.81967213115</v>
       </c>
     </row>
     <row r="425">
@@ -5268,7 +5268,7 @@
         <v>39934</v>
       </c>
       <c r="C425" t="n">
-        <v>21.86451612903226</v>
+        <v>17921.73453199365</v>
       </c>
     </row>
     <row r="426">
@@ -5279,7 +5279,7 @@
         <v>39965</v>
       </c>
       <c r="C426" t="n">
-        <v>23.651</v>
+        <v>19386.06557377049</v>
       </c>
     </row>
     <row r="427">
@@ -5290,7 +5290,7 @@
         <v>39995</v>
       </c>
       <c r="C427" t="n">
-        <v>23.83</v>
+        <v>19532.7868852459</v>
       </c>
     </row>
     <row r="428">
@@ -5301,7 +5301,7 @@
         <v>40026</v>
       </c>
       <c r="C428" t="n">
-        <v>25.38354838709677</v>
+        <v>20806.18720253834</v>
       </c>
     </row>
     <row r="429">
@@ -5312,7 +5312,7 @@
         <v>40057</v>
       </c>
       <c r="C429" t="n">
-        <v>25.55</v>
+        <v>20942.62295081967</v>
       </c>
     </row>
     <row r="430">
@@ -5323,7 +5323,7 @@
         <v>40087</v>
       </c>
       <c r="C430" t="n">
-        <v>25.55</v>
+        <v>20942.62295081967</v>
       </c>
     </row>
     <row r="431">
@@ -5334,7 +5334,7 @@
         <v>40118</v>
       </c>
       <c r="C431" t="n">
-        <v>25.55</v>
+        <v>20942.62295081967</v>
       </c>
     </row>
     <row r="432">
@@ -5345,7 +5345,7 @@
         <v>40148</v>
       </c>
       <c r="C432" t="n">
-        <v>25.48225806451613</v>
+        <v>20887.09677419355</v>
       </c>
     </row>
     <row r="433">
@@ -5356,7 +5356,7 @@
         <v>40179</v>
       </c>
       <c r="C433" t="n">
-        <v>24.85</v>
+        <v>20368.85245901639</v>
       </c>
     </row>
     <row r="434">
@@ -5367,7 +5367,7 @@
         <v>40210</v>
       </c>
       <c r="C434" t="n">
-        <v>24.85</v>
+        <v>20368.85245901639</v>
       </c>
     </row>
     <row r="435">
@@ -5378,7 +5378,7 @@
         <v>40238</v>
       </c>
       <c r="C435" t="n">
-        <v>24.85</v>
+        <v>20368.85245901639</v>
       </c>
     </row>
     <row r="436">
@@ -5389,7 +5389,7 @@
         <v>40269</v>
       </c>
       <c r="C436" t="n">
-        <v>24.85</v>
+        <v>20368.8524590164</v>
       </c>
     </row>
     <row r="437">
@@ -5400,7 +5400,7 @@
         <v>40299</v>
       </c>
       <c r="C437" t="n">
-        <v>24.85</v>
+        <v>20368.8524590164</v>
       </c>
     </row>
     <row r="438">
@@ -5411,7 +5411,7 @@
         <v>40330</v>
       </c>
       <c r="C438" t="n">
-        <v>24.85</v>
+        <v>20368.8524590164</v>
       </c>
     </row>
     <row r="439">
@@ -5422,7 +5422,7 @@
         <v>40360</v>
       </c>
       <c r="C439" t="n">
-        <v>24.85</v>
+        <v>20368.8524590164</v>
       </c>
     </row>
     <row r="440">
@@ -5433,7 +5433,7 @@
         <v>40391</v>
       </c>
       <c r="C440" t="n">
-        <v>24.85</v>
+        <v>20368.8524590164</v>
       </c>
     </row>
     <row r="441">
@@ -5444,7 +5444,7 @@
         <v>40422</v>
       </c>
       <c r="C441" t="n">
-        <v>24.85</v>
+        <v>20368.8524590164</v>
       </c>
     </row>
     <row r="442">
@@ -5455,7 +5455,7 @@
         <v>40452</v>
       </c>
       <c r="C442" t="n">
-        <v>24.85</v>
+        <v>20368.8524590164</v>
       </c>
     </row>
     <row r="443">
@@ -5466,7 +5466,7 @@
         <v>40483</v>
       </c>
       <c r="C443" t="n">
-        <v>24.85</v>
+        <v>20368.8524590164</v>
       </c>
     </row>
     <row r="444">
@@ -5477,7 +5477,7 @@
         <v>40513</v>
       </c>
       <c r="C444" t="n">
-        <v>24.85</v>
+        <v>20368.8524590164</v>
       </c>
     </row>
     <row r="445">
@@ -5488,7 +5488,7 @@
         <v>40544</v>
       </c>
       <c r="C445" t="n">
-        <v>26.26096774193548</v>
+        <v>21525.38339502909</v>
       </c>
     </row>
     <row r="446">
@@ -5499,7 +5499,7 @@
         <v>40575</v>
       </c>
       <c r="C446" t="n">
-        <v>26.47</v>
+        <v>21696.72131147541</v>
       </c>
     </row>
     <row r="447">
@@ -5510,7 +5510,7 @@
         <v>40603</v>
       </c>
       <c r="C447" t="n">
-        <v>28.96774193548387</v>
+        <v>23744.05076679006</v>
       </c>
     </row>
     <row r="448">
@@ -5521,7 +5521,7 @@
         <v>40634</v>
       </c>
       <c r="C448" t="n">
-        <v>29.14</v>
+        <v>23885.24590163934</v>
       </c>
     </row>
     <row r="449">
@@ -5532,7 +5532,7 @@
         <v>40664</v>
       </c>
       <c r="C449" t="n">
-        <v>29.14</v>
+        <v>23885.24590163934</v>
       </c>
     </row>
     <row r="450">
@@ -5543,7 +5543,7 @@
         <v>40695</v>
       </c>
       <c r="C450" t="n">
-        <v>29.14</v>
+        <v>23885.2459016393</v>
       </c>
     </row>
     <row r="451">
@@ -5554,7 +5554,7 @@
         <v>40725</v>
       </c>
       <c r="C451" t="n">
-        <v>29.14</v>
+        <v>23885.2459016393</v>
       </c>
     </row>
     <row r="452">
@@ -5565,7 +5565,7 @@
         <v>40756</v>
       </c>
       <c r="C452" t="n">
-        <v>29.14</v>
+        <v>23885.2459016393</v>
       </c>
     </row>
     <row r="453">
@@ -5576,7 +5576,7 @@
         <v>40787</v>
       </c>
       <c r="C453" t="n">
-        <v>29.14</v>
+        <v>23885.2459016393</v>
       </c>
     </row>
     <row r="454">
@@ -5587,7 +5587,7 @@
         <v>40817</v>
       </c>
       <c r="C454" t="n">
-        <v>29.14</v>
+        <v>23885.2459016393</v>
       </c>
     </row>
     <row r="455">
@@ -5598,7 +5598,7 @@
         <v>40848</v>
       </c>
       <c r="C455" t="n">
-        <v>29.14</v>
+        <v>23885.24590163934</v>
       </c>
     </row>
     <row r="456">
@@ -5609,7 +5609,7 @@
         <v>40878</v>
       </c>
       <c r="C456" t="n">
-        <v>30.1941935483871</v>
+        <v>24749.33897408778</v>
       </c>
     </row>
     <row r="457">
@@ -5620,7 +5620,7 @@
         <v>40909</v>
       </c>
       <c r="C457" t="n">
-        <v>30.86</v>
+        <v>25295.08196721311</v>
       </c>
     </row>
     <row r="458">
@@ -5631,7 +5631,7 @@
         <v>40940</v>
       </c>
       <c r="C458" t="n">
-        <v>30.86</v>
+        <v>25295.08196721311</v>
       </c>
     </row>
     <row r="459">
@@ -5642,7 +5642,7 @@
         <v>40969</v>
       </c>
       <c r="C459" t="n">
-        <v>30.86</v>
+        <v>25295.0819672131</v>
       </c>
     </row>
     <row r="460">
@@ -5653,7 +5653,7 @@
         <v>41000</v>
       </c>
       <c r="C460" t="n">
-        <v>32.155</v>
+        <v>26356.55737704918</v>
       </c>
     </row>
     <row r="461">
@@ -5664,7 +5664,7 @@
         <v>41030</v>
       </c>
       <c r="C461" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="462">
@@ -5675,7 +5675,7 @@
         <v>41061</v>
       </c>
       <c r="C462" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="463">
@@ -5686,7 +5686,7 @@
         <v>41091</v>
       </c>
       <c r="C463" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="464">
@@ -5697,7 +5697,7 @@
         <v>41122</v>
       </c>
       <c r="C464" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="465">
@@ -5708,7 +5708,7 @@
         <v>41153</v>
       </c>
       <c r="C465" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="466">
@@ -5719,7 +5719,7 @@
         <v>41183</v>
       </c>
       <c r="C466" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="467">
@@ -5730,7 +5730,7 @@
         <v>41214</v>
       </c>
       <c r="C467" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="468">
@@ -5741,7 +5741,7 @@
         <v>41244</v>
       </c>
       <c r="C468" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="469">
@@ -5752,7 +5752,7 @@
         <v>41275</v>
       </c>
       <c r="C469" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="470">
@@ -5763,7 +5763,7 @@
         <v>41306</v>
       </c>
       <c r="C470" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="471">
@@ -5774,7 +5774,7 @@
         <v>41334</v>
       </c>
       <c r="C471" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="472">
@@ -5785,7 +5785,7 @@
         <v>41365</v>
       </c>
       <c r="C472" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="473">
@@ -5796,7 +5796,7 @@
         <v>41395</v>
       </c>
       <c r="C473" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="474">
@@ -5807,7 +5807,7 @@
         <v>41426</v>
       </c>
       <c r="C474" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="475">
@@ -5818,7 +5818,7 @@
         <v>41456</v>
       </c>
       <c r="C475" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="476">
@@ -5829,7 +5829,7 @@
         <v>41487</v>
       </c>
       <c r="C476" t="n">
-        <v>32.71</v>
+        <v>26811.47540983606</v>
       </c>
     </row>
     <row r="477">
@@ -5840,7 +5840,7 @@
         <v>41518</v>
       </c>
       <c r="C477" t="n">
-        <v>34.71766666666667</v>
+        <v>28457.10382513661</v>
       </c>
     </row>
     <row r="478">
@@ -5851,7 +5851,7 @@
         <v>41548</v>
       </c>
       <c r="C478" t="n">
-        <v>35.88</v>
+        <v>29409.83606557377</v>
       </c>
     </row>
     <row r="479">
@@ -5862,7 +5862,7 @@
         <v>41579</v>
       </c>
       <c r="C479" t="n">
-        <v>35.88</v>
+        <v>29409.83606557377</v>
       </c>
     </row>
     <row r="480">
@@ -5873,7 +5873,7 @@
         <v>41609</v>
       </c>
       <c r="C480" t="n">
-        <v>35.88</v>
+        <v>29409.83606557377</v>
       </c>
     </row>
     <row r="481">
@@ -5884,7 +5884,7 @@
         <v>41640</v>
       </c>
       <c r="C481" t="n">
-        <v>36.68129</v>
+        <v>30066.63</v>
       </c>
     </row>
     <row r="482">
@@ -5895,7 +5895,7 @@
         <v>41671</v>
       </c>
       <c r="C482" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="483">
@@ -5906,7 +5906,7 @@
         <v>41699</v>
       </c>
       <c r="C483" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="484">
@@ -5917,7 +5917,7 @@
         <v>41730</v>
       </c>
       <c r="C484" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="485">
@@ -5928,7 +5928,7 @@
         <v>41760</v>
       </c>
       <c r="C485" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="486">
@@ -5939,7 +5939,7 @@
         <v>41791</v>
       </c>
       <c r="C486" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="487">
@@ -5950,7 +5950,7 @@
         <v>41821</v>
       </c>
       <c r="C487" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="488">
@@ -5961,7 +5961,7 @@
         <v>41852</v>
       </c>
       <c r="C488" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="489">
@@ -5972,7 +5972,7 @@
         <v>41883</v>
       </c>
       <c r="C489" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="490">
@@ -5983,7 +5983,7 @@
         <v>41913</v>
       </c>
       <c r="C490" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="491">
@@ -5994,7 +5994,7 @@
         <v>41944</v>
       </c>
       <c r="C491" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="492">
@@ -6005,7 +6005,7 @@
         <v>41974</v>
       </c>
       <c r="C492" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="493">
@@ -6016,7 +6016,7 @@
         <v>42005</v>
       </c>
       <c r="C493" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="494">
@@ -6027,7 +6027,7 @@
         <v>42036</v>
       </c>
       <c r="C494" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="495">
@@ -6038,7 +6038,7 @@
         <v>42064</v>
       </c>
       <c r="C495" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="496">
@@ -6049,7 +6049,7 @@
         <v>42095</v>
       </c>
       <c r="C496" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="497">
@@ -6060,7 +6060,7 @@
         <v>42125</v>
       </c>
       <c r="C497" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="498">
@@ -6071,7 +6071,7 @@
         <v>42156</v>
       </c>
       <c r="C498" t="n">
-        <v>36.96</v>
+        <v>30295.08196721311</v>
       </c>
     </row>
     <row r="499">
@@ -6082,7 +6082,7 @@
         <v>42186</v>
       </c>
       <c r="C499" t="n">
-        <v>37.67613</v>
+        <v>30882.0737704918</v>
       </c>
     </row>
     <row r="500">
@@ -6093,7 +6093,7 @@
         <v>42217</v>
       </c>
       <c r="C500" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="501">
@@ -6104,7 +6104,7 @@
         <v>42248</v>
       </c>
       <c r="C501" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="502">
@@ -6115,7 +6115,7 @@
         <v>42278</v>
       </c>
       <c r="C502" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="503">
@@ -6126,7 +6126,7 @@
         <v>42309</v>
       </c>
       <c r="C503" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="504">
@@ -6137,7 +6137,7 @@
         <v>42339</v>
       </c>
       <c r="C504" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="505">
@@ -6148,7 +6148,7 @@
         <v>42370</v>
       </c>
       <c r="C505" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="506">
@@ -6159,7 +6159,7 @@
         <v>42401</v>
       </c>
       <c r="C506" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="507">
@@ -6170,7 +6170,7 @@
         <v>42430</v>
       </c>
       <c r="C507" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="508">
@@ -6181,7 +6181,7 @@
         <v>42461</v>
       </c>
       <c r="C508" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="509">
@@ -6192,7 +6192,7 @@
         <v>42491</v>
       </c>
       <c r="C509" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="510">
@@ -6203,7 +6203,7 @@
         <v>42522</v>
       </c>
       <c r="C510" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="511">
@@ -6214,7 +6214,7 @@
         <v>42552</v>
       </c>
       <c r="C511" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="512">
@@ -6225,7 +6225,7 @@
         <v>42583</v>
       </c>
       <c r="C512" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="513">
@@ -6236,7 +6236,7 @@
         <v>42614</v>
       </c>
       <c r="C513" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="514">
@@ -6247,7 +6247,7 @@
         <v>42644</v>
       </c>
       <c r="C514" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="515">
@@ -6258,7 +6258,7 @@
         <v>42675</v>
       </c>
       <c r="C515" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="516">
@@ -6269,7 +6269,7 @@
         <v>42705</v>
       </c>
       <c r="C516" t="n">
-        <v>39.18</v>
+        <v>32114.75409836066</v>
       </c>
     </row>
     <row r="517">
@@ -6280,7 +6280,7 @@
         <v>42736</v>
       </c>
       <c r="C517" t="n">
-        <v>42.10805999999999</v>
+        <v>34514.80327868852</v>
       </c>
     </row>
     <row r="518">
@@ -6291,7 +6291,7 @@
         <v>42767</v>
       </c>
       <c r="C518" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="519">
@@ -6302,7 +6302,7 @@
         <v>42795</v>
       </c>
       <c r="C519" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="520">
@@ -6313,7 +6313,7 @@
         <v>42826</v>
       </c>
       <c r="C520" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="521">
@@ -6324,7 +6324,7 @@
         <v>42856</v>
       </c>
       <c r="C521" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="522">
@@ -6335,7 +6335,7 @@
         <v>42887</v>
       </c>
       <c r="C522" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="523">
@@ -6346,7 +6346,7 @@
         <v>42917</v>
       </c>
       <c r="C523" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="524">
@@ -6357,7 +6357,7 @@
         <v>42948</v>
       </c>
       <c r="C524" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="525">
@@ -6368,7 +6368,7 @@
         <v>42979</v>
       </c>
       <c r="C525" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="526">
@@ -6379,7 +6379,7 @@
         <v>43009</v>
       </c>
       <c r="C526" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="527">
@@ -6390,7 +6390,7 @@
         <v>43040</v>
       </c>
       <c r="C527" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="528">
@@ -6401,7 +6401,7 @@
         <v>43070</v>
       </c>
       <c r="C528" t="n">
-        <v>42.31</v>
+        <v>34680.32786885246</v>
       </c>
     </row>
     <row r="529">
@@ -6412,7 +6412,7 @@
         <v>43101</v>
       </c>
       <c r="C529" t="n">
-        <v>44.68613</v>
+        <v>36627.97540983606</v>
       </c>
     </row>
     <row r="530">
@@ -6423,7 +6423,7 @@
         <v>43132</v>
       </c>
       <c r="C530" t="n">
-        <v>44.85</v>
+        <v>36762.29508196721</v>
       </c>
     </row>
     <row r="531">
@@ -6434,7 +6434,7 @@
         <v>43160</v>
       </c>
       <c r="C531" t="n">
-        <v>44.85</v>
+        <v>36762.29508196721</v>
       </c>
     </row>
     <row r="532">
@@ -6445,7 +6445,7 @@
         <v>43191</v>
       </c>
       <c r="C532" t="n">
-        <v>44.85</v>
+        <v>36762.29508196721</v>
       </c>
     </row>
     <row r="533">
@@ -6456,7 +6456,7 @@
         <v>43221</v>
       </c>
       <c r="C533" t="n">
-        <v>44.85</v>
+        <v>36762.29508196721</v>
       </c>
     </row>
     <row r="534">
@@ -6467,7 +6467,7 @@
         <v>43252</v>
       </c>
       <c r="C534" t="n">
-        <v>44.85</v>
+        <v>36762.29508196721</v>
       </c>
     </row>
     <row r="535">
@@ -6478,7 +6478,7 @@
         <v>43282</v>
       </c>
       <c r="C535" t="n">
-        <v>48.49587</v>
+        <v>39750.7131147541</v>
       </c>
     </row>
     <row r="536">
@@ -6489,7 +6489,7 @@
         <v>43313</v>
       </c>
       <c r="C536" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="537">
@@ -6500,7 +6500,7 @@
         <v>43344</v>
       </c>
       <c r="C537" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="538">
@@ -6511,7 +6511,7 @@
         <v>43374</v>
       </c>
       <c r="C538" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="539">
@@ -6522,7 +6522,7 @@
         <v>43405</v>
       </c>
       <c r="C539" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="540">
@@ -6533,7 +6533,7 @@
         <v>43435</v>
       </c>
       <c r="C540" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="541">
@@ -6544,7 +6544,7 @@
         <v>43466</v>
       </c>
       <c r="C541" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="542">
@@ -6555,7 +6555,7 @@
         <v>43497</v>
       </c>
       <c r="C542" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="543">
@@ -6566,7 +6566,7 @@
         <v>43525</v>
       </c>
       <c r="C543" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="544">
@@ -6577,7 +6577,7 @@
         <v>43556</v>
       </c>
       <c r="C544" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="545">
@@ -6588,7 +6588,7 @@
         <v>43586</v>
       </c>
       <c r="C545" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="546">
@@ -6599,7 +6599,7 @@
         <v>43617</v>
       </c>
       <c r="C546" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="547">
@@ -6610,7 +6610,7 @@
         <v>43647</v>
       </c>
       <c r="C547" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="548">
@@ -6621,7 +6621,7 @@
         <v>43678</v>
       </c>
       <c r="C548" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="549">
@@ -6632,7 +6632,7 @@
         <v>43709</v>
       </c>
       <c r="C549" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="550">
@@ -6643,7 +6643,7 @@
         <v>43739</v>
       </c>
       <c r="C550" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="551">
@@ -6654,7 +6654,7 @@
         <v>43770</v>
       </c>
       <c r="C551" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="552">
@@ -6665,7 +6665,7 @@
         <v>43800</v>
       </c>
       <c r="C552" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="553">
@@ -6676,7 +6676,7 @@
         <v>43831</v>
       </c>
       <c r="C553" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="554">
@@ -6687,7 +6687,7 @@
         <v>43862</v>
       </c>
       <c r="C554" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="555">
@@ -6698,7 +6698,7 @@
         <v>43891</v>
       </c>
       <c r="C555" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="556">
@@ -6709,7 +6709,7 @@
         <v>43922</v>
       </c>
       <c r="C556" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="557">
@@ -6720,7 +6720,7 @@
         <v>43952</v>
       </c>
       <c r="C557" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="558">
@@ -6731,7 +6731,7 @@
         <v>43983</v>
       </c>
       <c r="C558" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="559">
@@ -6742,7 +6742,7 @@
         <v>44013</v>
       </c>
       <c r="C559" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="560">
@@ -6753,7 +6753,7 @@
         <v>44044</v>
       </c>
       <c r="C560" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="561">
@@ -6764,7 +6764,7 @@
         <v>44075</v>
       </c>
       <c r="C561" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="562">
@@ -6775,7 +6775,7 @@
         <v>44105</v>
       </c>
       <c r="C562" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="563">
@@ -6786,7 +6786,7 @@
         <v>44136</v>
       </c>
       <c r="C563" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="564">
@@ -6797,7 +6797,7 @@
         <v>44166</v>
       </c>
       <c r="C564" t="n">
-        <v>48.8865</v>
+        <v>40070.90163934427</v>
       </c>
     </row>
     <row r="565">
@@ -6808,7 +6808,7 @@
         <v>44197</v>
       </c>
       <c r="C565" t="n">
-        <v>52.26</v>
+        <v>42836.06557377049</v>
       </c>
     </row>
     <row r="566">
@@ -6819,7 +6819,7 @@
         <v>44228</v>
       </c>
       <c r="C566" t="n">
-        <v>52.26</v>
+        <v>42836.06557377049</v>
       </c>
     </row>
     <row r="567">
@@ -6830,7 +6830,7 @@
         <v>44256</v>
       </c>
       <c r="C567" t="n">
-        <v>52.26</v>
+        <v>42836.06557377049</v>
       </c>
     </row>
     <row r="568">
@@ -6841,7 +6841,7 @@
         <v>44287</v>
       </c>
       <c r="C568" t="n">
-        <v>52.26</v>
+        <v>42836.06557377049</v>
       </c>
     </row>
     <row r="569">
@@ -6852,7 +6852,7 @@
         <v>44317</v>
       </c>
       <c r="C569" t="n">
-        <v>52.26</v>
+        <v>42836.06557377049</v>
       </c>
     </row>
     <row r="570">
@@ -6863,7 +6863,7 @@
         <v>44348</v>
       </c>
       <c r="C570" t="n">
-        <v>57.06792</v>
+        <v>46776.98360655738</v>
       </c>
     </row>
     <row r="571">
@@ -6874,7 +6874,7 @@
         <v>44378</v>
       </c>
       <c r="C571" t="n">
-        <v>58.5312</v>
+        <v>47976.39344262295</v>
       </c>
     </row>
     <row r="572">
@@ -6885,7 +6885,7 @@
         <v>44409</v>
       </c>
       <c r="C572" t="n">
-        <v>58.5312</v>
+        <v>47976.39344262295</v>
       </c>
     </row>
     <row r="573">
@@ -6896,7 +6896,7 @@
         <v>44440</v>
       </c>
       <c r="C573" t="n">
-        <v>58.5312</v>
+        <v>47976.39344262295</v>
       </c>
     </row>
     <row r="574">
@@ -6907,7 +6907,7 @@
         <v>44470</v>
       </c>
       <c r="C574" t="n">
-        <v>68.5312</v>
+        <v>56173.11475409836</v>
       </c>
     </row>
     <row r="575">
@@ -6918,7 +6918,7 @@
         <v>44501</v>
       </c>
       <c r="C575" t="n">
-        <v>73.5312</v>
+        <v>60271.47540983606</v>
       </c>
     </row>
     <row r="576">
@@ -6929,7 +6929,7 @@
         <v>44531</v>
       </c>
       <c r="C576" t="n">
-        <v>78.5312</v>
+        <v>64369.83606557377</v>
       </c>
     </row>
     <row r="577">
@@ -6940,7 +6940,7 @@
         <v>44562</v>
       </c>
       <c r="C577" t="n">
-        <v>78.5312</v>
+        <v>64369.83606557377</v>
       </c>
     </row>
     <row r="578">
@@ -6951,7 +6951,7 @@
         <v>44593</v>
       </c>
       <c r="C578" t="n">
-        <v>81.5312</v>
+        <v>66828.85245901639</v>
       </c>
     </row>
     <row r="579">
@@ -6962,7 +6962,7 @@
         <v>44621</v>
       </c>
       <c r="C579" t="n">
-        <v>83.16186</v>
+        <v>68165.45901639345</v>
       </c>
     </row>
     <row r="580">
@@ -6973,7 +6973,7 @@
         <v>44652</v>
       </c>
       <c r="C580" t="n">
-        <v>88.16186</v>
+        <v>72263.81967213115</v>
       </c>
     </row>
     <row r="581">
@@ -6984,7 +6984,7 @@
         <v>44682</v>
       </c>
       <c r="C581" t="n">
-        <v>93.16186</v>
+        <v>76362.18032786886</v>
       </c>
     </row>
     <row r="582">
@@ -6995,7 +6995,7 @@
         <v>44713</v>
       </c>
       <c r="C582" t="n">
-        <v>96.99111000000001</v>
+        <v>79500.90983606558</v>
       </c>
     </row>
     <row r="583">
@@ -7006,7 +7006,7 @@
         <v>44743</v>
       </c>
       <c r="C583" t="n">
-        <v>96.99111000000001</v>
+        <v>79500.90983606558</v>
       </c>
     </row>
     <row r="584">
@@ -7017,7 +7017,7 @@
         <v>44774</v>
       </c>
       <c r="C584" t="n">
-        <v>96.99111000000001</v>
+        <v>79500.90983606558</v>
       </c>
     </row>
     <row r="585">
@@ -7028,7 +7028,7 @@
         <v>44805</v>
       </c>
       <c r="C585" t="n">
-        <v>93.99111000000001</v>
+        <v>77041.89344262295</v>
       </c>
     </row>
     <row r="586">
@@ -7039,7 +7039,7 @@
         <v>44835</v>
       </c>
       <c r="C586" t="n">
-        <v>90.99111000000001</v>
+        <v>74582.87704918033</v>
       </c>
     </row>
     <row r="587">
@@ -7050,7 +7050,7 @@
         <v>44866</v>
       </c>
       <c r="C587" t="n">
-        <v>87.99111000000001</v>
+        <v>72123.86065573771</v>
       </c>
     </row>
     <row r="588">
@@ -7061,7 +7061,7 @@
         <v>44896</v>
       </c>
       <c r="C588" t="n">
-        <v>87.99111000000001</v>
+        <v>72123.86065573771</v>
       </c>
     </row>
     <row r="589">
@@ -7072,7 +7072,7 @@
         <v>44927</v>
       </c>
       <c r="C589" t="n">
-        <v>82.99111000000001</v>
+        <v>68025.5</v>
       </c>
     </row>
     <row r="590">
@@ -7083,7 +7083,7 @@
         <v>44958</v>
       </c>
       <c r="C590" t="n">
-        <v>82.99111000000001</v>
+        <v>68025.5</v>
       </c>
     </row>
     <row r="591">
@@ -7094,7 +7094,7 @@
         <v>44986</v>
       </c>
       <c r="C591" t="n">
-        <v>82.99111000000001</v>
+        <v>68025.5</v>
       </c>
     </row>
     <row r="592">
@@ -7105,7 +7105,7 @@
         <v>45017</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>68025.5</v>
       </c>
     </row>
     <row r="593">
@@ -7116,7 +7116,7 @@
         <v>45047</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>68025.5</v>
       </c>
     </row>
     <row r="594">
@@ -7127,7 +7127,7 @@
         <v>45078</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>62851.85245901639</v>
       </c>
     </row>
     <row r="595">
@@ -7138,7 +7138,7 @@
         <v>45108</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>60654.98360655738</v>
       </c>
     </row>
     <row r="596">
@@ -7149,7 +7149,7 @@
         <v>45139</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>60654.98360655738</v>
       </c>
     </row>
     <row r="597">
@@ -7160,7 +7160,7 @@
         <v>45170</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>60654.98360655738</v>
       </c>
     </row>
     <row r="598">
@@ -7171,7 +7171,7 @@
         <v>45200</v>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>63933.67213114754</v>
       </c>
     </row>
     <row r="599">
@@ -7182,7 +7182,7 @@
         <v>45231</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>65573.77049180328</v>
       </c>
     </row>
     <row r="600">
@@ -7193,7 +7193,7 @@
         <v>45261</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>65573.77049180328</v>
       </c>
     </row>
     <row r="601">
@@ -7204,7 +7204,7 @@
         <v>45292</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>65573.77049180328</v>
       </c>
     </row>
     <row r="602">
@@ -7215,7 +7215,7 @@
         <v>45323</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>65573.77049180328</v>
       </c>
     </row>
     <row r="603">
@@ -7226,7 +7226,7 @@
         <v>45352</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>67213.11475409837</v>
       </c>
     </row>
     <row r="604">
@@ -7237,7 +7237,7 @@
         <v>45383</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>67213.11475409837</v>
       </c>
     </row>
     <row r="605">
@@ -7248,7 +7248,7 @@
         <v>45413</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>69262.29508196721</v>
       </c>
     </row>
     <row r="606">
@@ -7259,7 +7259,7 @@
         <v>45444</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>68442.62295081967</v>
       </c>
     </row>
     <row r="607">
@@ -7270,7 +7270,7 @@
         <v>45474</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>68442.62295081967</v>
       </c>
     </row>
     <row r="608">
@@ -7281,7 +7281,7 @@
         <v>45505</v>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>68442.62295081967</v>
       </c>
     </row>
     <row r="609">
@@ -7292,7 +7292,7 @@
         <v>45536</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>68442.62295081967</v>
       </c>
     </row>
     <row r="610">
@@ -7303,7 +7303,7 @@
         <v>45566</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>68442.62295081967</v>
       </c>
     </row>
     <row r="611">
@@ -7314,7 +7314,7 @@
         <v>45597</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>68442.62295081967</v>
       </c>
     </row>
     <row r="612">
@@ -7325,7 +7325,7 @@
         <v>45627</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>68442.62295081967</v>
       </c>
     </row>
     <row r="613">
@@ -7336,7 +7336,7 @@
         <v>45658</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>74180.32786885246</v>
       </c>
     </row>
     <row r="614">
@@ -7347,7 +7347,7 @@
         <v>45689</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>74180.32786885246</v>
       </c>
     </row>
     <row r="615">
@@ -7358,7 +7358,7 @@
         <v>45717</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>74180.32786885246</v>
       </c>
     </row>
     <row r="616">
@@ -7369,7 +7369,7 @@
         <v>45748</v>
       </c>
       <c r="C616" t="n">
-        <v>0</v>
+        <v>74180.32786885246</v>
       </c>
     </row>
     <row r="617">
@@ -7380,7 +7380,7 @@
         <v>45778</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>72844.57377049181</v>
       </c>
     </row>
     <row r="618">
@@ -7391,7 +7391,7 @@
         <v>45809</v>
       </c>
       <c r="C618" t="n">
-        <v>0</v>
+        <v>71594.88524590163</v>
       </c>
     </row>
     <row r="619">
@@ -7402,7 +7402,7 @@
         <v>45839</v>
       </c>
       <c r="C619" t="n">
-        <v>0</v>
+        <v>72539.27868852459</v>
       </c>
     </row>
     <row r="620">
@@ -7413,7 +7413,7 @@
         <v>45870</v>
       </c>
       <c r="C620" t="n">
-        <v>0</v>
+        <v>72539.27868852459</v>
       </c>
     </row>
     <row r="621">
@@ -7424,7 +7424,7 @@
         <v>45901</v>
       </c>
       <c r="C621" t="n">
-        <v>0</v>
+        <v>70327.53278688525</v>
       </c>
     </row>
     <row r="622">
@@ -7435,7 +7435,7 @@
         <v>45931</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>70327.53278688525</v>
       </c>
     </row>
     <row r="623">
@@ -7446,7 +7446,7 @@
         <v>45962</v>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>69345.63114754099</v>
       </c>
     </row>
   </sheetData>
